--- a/excel_data/vast_data_final_20250929_070753.xlsx
+++ b/excel_data/vast_data_final_20250929_070753.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray.stamps/Documents/as-built-report/ps-deploy-report/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D49E7D-ECFD-B448-8881-E4AEDA8EA83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2214D2-4112-4044-BB09-E4E4EEA633FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-97460" yWindow="-13220" windowWidth="25420" windowHeight="25700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Summary-Compare" sheetId="9" r:id="rId1"/>
-    <sheet name="Data_Completeness" sheetId="1" r:id="rId2"/>
-    <sheet name="Cluster_Basic_Info" sheetId="2" r:id="rId3"/>
-    <sheet name="Cluster_State_Info" sheetId="3" r:id="rId4"/>
-    <sheet name="Cluster_Capacity_Info" sheetId="4" r:id="rId5"/>
-    <sheet name="CNodes_Info" sheetId="5" r:id="rId6"/>
-    <sheet name="DNodes_Info" sheetId="6" r:id="rId7"/>
-    <sheet name="Curl_Commands" sheetId="7" r:id="rId8"/>
-    <sheet name="Troubleshooting" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Data_Completeness" sheetId="1" r:id="rId3"/>
+    <sheet name="Cluster_Basic_Info" sheetId="2" r:id="rId4"/>
+    <sheet name="Cluster_State_Info" sheetId="3" r:id="rId5"/>
+    <sheet name="Cluster_Capacity_Info" sheetId="4" r:id="rId6"/>
+    <sheet name="CNodes_Info" sheetId="5" r:id="rId7"/>
+    <sheet name="DNodes_Info" sheetId="6" r:id="rId8"/>
+    <sheet name="Curl_Commands" sheetId="7" r:id="rId9"/>
+    <sheet name="Troubleshooting" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="222">
   <si>
     <t>Data_Source</t>
   </si>
@@ -683,6 +684,30 @@
   </si>
   <si>
     <t>DNodes_Info</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v7/clusters/' | jq -r '.[0] | [.id, .name, .mgmt_vip, .url, .build, .psnt, .guid, .uptime, .online_start_time, .deployment_time] | @csv'</t>
+  </si>
+  <si>
+    <t>Rev1:</t>
+  </si>
+  <si>
+    <t>Rev2:</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v1/clusters/' | jq -r '.[0] | [.b2b_configuration, .disable_metrics, .usable_capacity_tb, .free_usable_capacity_tb, .drr_text, .physical_space_tb, .physical_space_in_use_tb, .free_physical_space_tb, .physical_space_in_use_percent, .logical_space_tb, .logical_space_in_use_tb, .free_logical_space_tb, .logical_space_in_use_percent, .enable_encryption, .S3_ENABLE_ONLY_AES_CIPHERS, .encryption_type, .ekm_servers, .ekm_address, .ekm_port, .ekm_auth_domain, .secondary_ekm_address, .secondary_ekm_port, .ebox, .external_version, .external_build, .external_sp_version, .external_hotfix_version] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v1/clusters/' | jq -r '.[0] | [.state, .ssd_raid_state, .nvram_raid_state, .memory_raid_state, .leader_state, .leader_cnode, .mgmt_cnode, .mgmt_inner_vip, .mgmt_inner_vip_cnode, .enabled, .enable_similarity] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v1/clusters/' | jq -r '.[0] | [.similarity_active, .skip_dedup, .dedup_active, .is_wb_raid_enabled, .wb_raid_layout, .dbox_ha_support, .enable_rack_level_resiliency] | @csv'</t>
+  </si>
+  <si>
+    <t>curl -k -H 'Authorization: Api-Token PILpmpLs.SyIMdS1Z67NxEmCXDYU0l09sRdakLZs3' 'https://10.143.11.204/api/v1/clusters/' | jq -r '.[0] | [.state, .ssd_raid_state, .nvram_raid_state, .memory_raid_state, .leader_state, .leader_cnode, .mgmt_cnode, .mgmt_inner_vip, .mgmt_inner_vip_cnode, .enabled, .enable_similarity, .similarity_active, .skip_dedup, .dedup_active, .is_wb_raid_enabled, .wb_raid_layout, .dbox_ha_support, .enable_rack_level_resiliency] | @csv'</t>
+  </si>
+  <si>
+    <t>VMS REST API v7 (for VAST Cluster 5.3)</t>
   </si>
 </sst>
 </file>
@@ -739,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -756,6 +781,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,496 +1090,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC2D33D-51F5-A243-B945-BB9D0F789D17}">
-  <dimension ref="B2:E98"/>
+  <dimension ref="B4:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="72.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="194.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="E20" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="E21" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>210</v>
       </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4" t="b">
+      <c r="C32" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="D32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C33" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="4" t="b">
+      <c r="C42" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="D42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C48" s="4">
         <v>282.09500000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="4">
-        <v>163.583</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="4">
-        <v>118.512</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="4">
-        <v>392.839</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4">
-        <v>228.012</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C49" s="4">
-        <v>164.363</v>
+        <v>163.583</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4">
-        <v>1.761601256750192</v>
+        <v>118.512</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C51" s="4">
+        <v>392.839</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4">
-        <v>57.99</v>
+        <v>228.012</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="4">
+        <v>164.363</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1.761601256750192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="4">
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C57" s="4">
         <v>58.04</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C58"/>
-      <c r="E58" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="E62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C59"/>
-      <c r="E59" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+      <c r="E63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>212</v>
       </c>
-      <c r="C60"/>
-      <c r="E60" t="s">
+      <c r="C64"/>
+      <c r="E64" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="4">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="C65" s="4">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>46</v>
@@ -1562,313 +1621,369 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="4">
-        <v>35</v>
-      </c>
-      <c r="D73" s="4">
-        <v>35</v>
-      </c>
-      <c r="E73" s="4">
-        <v>35</v>
+        <v>91</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4" t="b">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="4">
+        <v>35</v>
+      </c>
+      <c r="D77" s="4">
+        <v>35</v>
+      </c>
+      <c r="E77" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C83"/>
-      <c r="D83" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+      <c r="D87" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>213</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" t="s">
+      <c r="C88"/>
+      <c r="D88" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C89" s="4">
         <v>1</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D89" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+      <c r="C91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+      <c r="C95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1877,7 +1992,508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2FD7C3-F181-324A-9520-FBBE3339B4DD}">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2110,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -2341,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
@@ -2677,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2854,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -3353,7 +3969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -3681,11 +4297,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3953,103 +4569,7 @@
         <v>187</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>208</v>
-      </c>
-    </row>
+    <row r="18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
